--- a/2016년 재료비 6월/로보로보 재료비.xlsx
+++ b/2016년 재료비 6월/로보로보 재료비.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -466,17 +466,17 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -518,7 +518,7 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>86000</v>
       </c>
       <c r="G2" s="4"/>
@@ -539,7 +539,7 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>81000</v>
       </c>
       <c r="G3" s="4"/>
@@ -560,7 +560,7 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>81000</v>
       </c>
       <c r="G4" s="4"/>
@@ -581,7 +581,7 @@
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>86000</v>
       </c>
       <c r="G5" s="4"/>
@@ -602,7 +602,7 @@
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>86000</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -625,7 +625,7 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>86000</v>
       </c>
       <c r="G7" s="4"/>
@@ -636,10 +636,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4">
-        <f>SUM(F2:F7)</f>
-        <v>506000</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
   </sheetData>
